--- a/车辆段资料/10号线 板桥-高大路 按钮指令对应表(1).xlsx
+++ b/车辆段资料/10号线 板桥-高大路 按钮指令对应表(1).xlsx
@@ -69,7 +69,7 @@
     <t>取消引导进路</t>
   </si>
   <si>
-    <t>总人解+引导信号机始端按钮（LA/YA）</t>
+    <t>总人解++密码+引导信号机始端按钮（LA/YA）</t>
   </si>
   <si>
     <t>0xD5+LA/YA</t>
@@ -105,7 +105,7 @@
     <t>道岔解锁</t>
   </si>
   <si>
-    <t>解锁+道岔按钮（CA）</t>
+    <t>单解+道岔按钮（CA）</t>
   </si>
   <si>
     <t>0x25+0x04+CA</t>
@@ -114,7 +114,7 @@
     <t>道岔单封</t>
   </si>
   <si>
-    <t>单封+道岔按钮（CA)</t>
+    <t>道岔封锁+道岔按钮（CA)</t>
   </si>
   <si>
     <t>0x25+0x05+CA</t>
@@ -123,7 +123,7 @@
     <t>道岔解封</t>
   </si>
   <si>
-    <t>解封+道岔按钮（CA）</t>
+    <t>道岔解封+道岔按钮（CA）</t>
   </si>
   <si>
     <t>0x25+0x06+CA</t>
@@ -194,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -223,51 +223,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,7 +282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,15 +290,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,12 +321,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -343,37 +366,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,49 +388,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,13 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,115 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,26 +618,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -641,17 +639,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,160 +677,175 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,6 +857,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1238,7 +1271,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1309,10 +1342,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1320,7 +1353,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1331,7 +1364,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1342,7 +1375,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1353,7 +1386,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1364,7 +1397,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1375,7 +1408,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1386,10 +1419,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1397,7 +1430,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1408,7 +1441,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1419,7 +1452,7 @@
       </c>
     </row>
     <row r="16" ht="81" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1428,12 +1461,12 @@
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
